--- a/ChaoticaOnline/Data/Data.xlsx
+++ b/ChaoticaOnline/Data/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-216" yWindow="-12" windowWidth="11940" windowHeight="9360" tabRatio="682" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-216" yWindow="-12" windowWidth="11940" windowHeight="9360" tabRatio="682" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="2846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="2848">
   <si>
     <t>ID</t>
   </si>
@@ -8572,6 +8572,12 @@
   </si>
   <si>
     <t>Giant, Merman, Bird</t>
+  </si>
+  <si>
+    <t>2-50</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
 </sst>
 </file>
@@ -9044,9 +9050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27429,8 +27435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -49119,10 +49125,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49335,7 +49341,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>83</v>
@@ -49345,193 +49351,252 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>240</v>
       </c>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K26" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
       <c r="D33" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
       <c r="D35" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
       <c r="D36" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
       <c r="D41" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>725</v>
       </c>
@@ -49656,6 +49721,7 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
